--- a/jshERP-boot/docs/管伊佳ERP数据库设计汇总.xlsx
+++ b/jshERP-boot/docs/管伊佳ERP数据库设计汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="8110" tabRatio="936" firstSheet="20" activeTab="29"/>
+    <workbookView windowHeight="18915" tabRatio="936" firstSheet="20" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="47" state="hidden" r:id="rId1"/>
@@ -50,12 +50,25 @@
     <definedName name="押品与债项关系_对公_go" localSheetId="0">'[1]押品与债项关系(对公)'!#REF!</definedName>
     <definedName name="押品与债项关系_对公_go">'[1]押品与债项关系(对公)'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="478">
   <si>
     <t>返回</t>
   </si>
@@ -1371,6 +1384,12 @@
     <t>单据数量限制</t>
   </si>
   <si>
+    <t>expire_time</t>
+  </si>
+  <si>
+    <t>到期时间</t>
+  </si>
+  <si>
     <t>名称，支持多单位</t>
   </si>
   <si>
@@ -1462,9 +1481,6 @@
   </si>
   <si>
     <t>是否系统自带数据</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
   <si>
     <t>用户状态</t>
@@ -1491,7 +1507,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1595,51 +1611,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -1653,14 +1624,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1705,16 +1668,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1740,13 +1712,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1762,7 +1727,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
@@ -1770,10 +1779,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1949,7 +1965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1961,7 +1977,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,91 +2001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2075,6 +2019,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2087,7 +2043,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2105,19 +2085,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2141,6 +2127,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2148,6 +2140,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2237,21 +2253,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2285,6 +2286,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2295,21 +2311,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2345,6 +2346,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2443,445 +2459,445 @@
   </borders>
   <cellStyleXfs count="792">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2892,136 +2908,136 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3042,47 +3058,47 @@
     <xf numFmtId="0" fontId="44" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="49" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3093,13 +3109,13 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3108,7 +3124,7 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3123,13 +3139,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3137,7 +3153,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3145,36 +3161,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3183,239 +3199,239 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3436,33 +3452,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3491,125 +3507,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3617,7 +3633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3628,73 +3644,73 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3712,37 +3728,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3770,55 +3786,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3828,142 +3844,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
@@ -3973,67 +3989,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
@@ -4083,325 +4099,325 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4444,21 +4460,21 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4473,28 +4489,28 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4512,7 +4528,7 @@
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4554,7 +4570,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="23" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4563,7 +4579,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4640,104 +4656,104 @@
   </cellXfs>
   <cellStyles count="792">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="?? 185 2 2" xfId="1"/>
-    <cellStyle name="?? 28" xfId="2"/>
-    <cellStyle name="?? 33" xfId="3"/>
-    <cellStyle name="货币[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="常规 39" xfId="5"/>
-    <cellStyle name="常规 44" xfId="6"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
-    <cellStyle name="输入" xfId="9" builtinId="20"/>
-    <cellStyle name="?? 15" xfId="10"/>
-    <cellStyle name="?? 20" xfId="11"/>
-    <cellStyle name="常规 2 26" xfId="12"/>
-    <cellStyle name="千位分隔[0]" xfId="13" builtinId="6"/>
-    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="14"/>
-    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="15"/>
-    <cellStyle name="常规 7 3" xfId="16"/>
-    <cellStyle name="千位分隔" xfId="17" builtinId="3"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="18" builtinId="39"/>
-    <cellStyle name="差" xfId="19" builtinId="27"/>
-    <cellStyle name="?? 11" xfId="20"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="21" builtinId="40"/>
-    <cellStyle name="差_个贷账户基础信息表（V）" xfId="22"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8"/>
-    <cellStyle name="常规 10 2 2 3" xfId="24"/>
-    <cellStyle name="百分比" xfId="25" builtinId="5"/>
-    <cellStyle name="常规 101_ITDM3.2期数据库设计汇总" xfId="26"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9"/>
-    <cellStyle name="注释" xfId="28" builtinId="10"/>
-    <cellStyle name="常规 95 2 2" xfId="29"/>
-    <cellStyle name="常规 6" xfId="30"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="31" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="32" builtinId="19"/>
-    <cellStyle name="?? 10" xfId="33"/>
-    <cellStyle name="警告文本" xfId="34" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="35"/>
-    <cellStyle name="标题" xfId="36" builtinId="15"/>
-    <cellStyle name="常规 49 2" xfId="37"/>
-    <cellStyle name="常规 54 2" xfId="38"/>
-    <cellStyle name="解释性文本" xfId="39" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="40" builtinId="16"/>
-    <cellStyle name="常规 74_ITDM3.2期数据库设计汇总" xfId="41"/>
-    <cellStyle name="常规 69_ITDM3.2期数据库设计汇总" xfId="42"/>
-    <cellStyle name="常规 10 2 2 3 4" xfId="43"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="44"/>
-    <cellStyle name="标题 2" xfId="45" builtinId="17"/>
-    <cellStyle name="常规 10 2 2 2 2 3 2" xfId="46"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="47" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="48" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="49" builtinId="44"/>
-    <cellStyle name="输出" xfId="50" builtinId="21"/>
-    <cellStyle name="常规 90" xfId="51"/>
-    <cellStyle name="常规 85" xfId="52"/>
-    <cellStyle name="Input" xfId="53"/>
-    <cellStyle name="常规 26" xfId="54"/>
-    <cellStyle name="常规 31" xfId="55"/>
-    <cellStyle name="计算" xfId="56" builtinId="22"/>
-    <cellStyle name="?? 2" xfId="57"/>
-    <cellStyle name="检查单元格" xfId="58" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="59" builtinId="50"/>
-    <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="60"/>
-    <cellStyle name="常规 75 2_ITDM3.2期数据库设计汇总" xfId="61"/>
-    <cellStyle name="强调文字颜色 2" xfId="62" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="63" builtinId="24"/>
-    <cellStyle name="好_对公资产监管经济资本表" xfId="64"/>
-    <cellStyle name="汇总" xfId="65" builtinId="25"/>
-    <cellStyle name="好" xfId="66" builtinId="26"/>
-    <cellStyle name="20% - Accent3 2" xfId="67"/>
-    <cellStyle name="Heading 3" xfId="68"/>
-    <cellStyle name="适中" xfId="69" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="70" builtinId="46"/>
-    <cellStyle name="常规 8 2" xfId="71"/>
-    <cellStyle name="强调文字颜色 1" xfId="72" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="73" builtinId="30"/>
-    <cellStyle name="常规 47 2_ITDM3.2期数据库设计汇总" xfId="74"/>
-    <cellStyle name="常规 52 2_ITDM3.2期数据库设计汇总" xfId="75"/>
-    <cellStyle name="常规 10 2 3 2 2 2" xfId="76"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="77" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="78" builtinId="34"/>
-    <cellStyle name="常规 10 2 3 2 2 3" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="80" builtinId="35"/>
-    <cellStyle name="常规 2 26 2" xfId="81"/>
-    <cellStyle name="强调文字颜色 3" xfId="82" builtinId="37"/>
-    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="83"/>
-    <cellStyle name="强调文字颜色 4" xfId="84" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="85" builtinId="42"/>
-    <cellStyle name="好_RDM_零售_P-F_数据映射_V1.0" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="87" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="88" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="89" builtinId="47"/>
-    <cellStyle name="常规 96 2_ITDM3.2期数据库设计汇总" xfId="90"/>
-    <cellStyle name="常规 48 2" xfId="91"/>
-    <cellStyle name="常规 53 2" xfId="92"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="93" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="94" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="95" builtinId="51"/>
-    <cellStyle name="常规 48 3" xfId="96"/>
-    <cellStyle name="常规 53 3" xfId="97"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="98" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="?? 185 2 2" xfId="49"/>
+    <cellStyle name="?? 28" xfId="50"/>
+    <cellStyle name="?? 33" xfId="51"/>
+    <cellStyle name="常规 39" xfId="52"/>
+    <cellStyle name="常规 44" xfId="53"/>
+    <cellStyle name="?? 15" xfId="54"/>
+    <cellStyle name="?? 20" xfId="55"/>
+    <cellStyle name="常规 2 26" xfId="56"/>
+    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="57"/>
+    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="58"/>
+    <cellStyle name="常规 7 3" xfId="59"/>
+    <cellStyle name="?? 11" xfId="60"/>
+    <cellStyle name="差_个贷账户基础信息表（V）" xfId="61"/>
+    <cellStyle name="常规 10 2 2 3" xfId="62"/>
+    <cellStyle name="常规 101_ITDM3.2期数据库设计汇总" xfId="63"/>
+    <cellStyle name="常规 95 2 2" xfId="64"/>
+    <cellStyle name="常规 6" xfId="65"/>
+    <cellStyle name="?? 10" xfId="66"/>
+    <cellStyle name="常规 5 2" xfId="67"/>
+    <cellStyle name="常规 49 2" xfId="68"/>
+    <cellStyle name="常规 54 2" xfId="69"/>
+    <cellStyle name="常规 74_ITDM3.2期数据库设计汇总" xfId="70"/>
+    <cellStyle name="常规 69_ITDM3.2期数据库设计汇总" xfId="71"/>
+    <cellStyle name="常规 10 2 2 3 4" xfId="72"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="73"/>
+    <cellStyle name="常规 10 2 2 2 2 3 2" xfId="74"/>
+    <cellStyle name="常规 90" xfId="75"/>
+    <cellStyle name="常规 85" xfId="76"/>
+    <cellStyle name="Input" xfId="77"/>
+    <cellStyle name="常规 26" xfId="78"/>
+    <cellStyle name="常规 31" xfId="79"/>
+    <cellStyle name="?? 2" xfId="80"/>
+    <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="81"/>
+    <cellStyle name="常规 75 2_ITDM3.2期数据库设计汇总" xfId="82"/>
+    <cellStyle name="好_对公资产监管经济资本表" xfId="83"/>
+    <cellStyle name="20% - Accent3 2" xfId="84"/>
+    <cellStyle name="Heading 3" xfId="85"/>
+    <cellStyle name="常规 8 2" xfId="86"/>
+    <cellStyle name="常规 47 2_ITDM3.2期数据库设计汇总" xfId="87"/>
+    <cellStyle name="常规 52 2_ITDM3.2期数据库设计汇总" xfId="88"/>
+    <cellStyle name="常规 10 2 3 2 2 2" xfId="89"/>
+    <cellStyle name="常规 10 2 3 2 2 3" xfId="90"/>
+    <cellStyle name="常规 2 26 2" xfId="91"/>
+    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="92"/>
+    <cellStyle name="好_RDM_零售_P-F_数据映射_V1.0" xfId="93"/>
+    <cellStyle name="常规 96 2_ITDM3.2期数据库设计汇总" xfId="94"/>
+    <cellStyle name="常规 48 2" xfId="95"/>
+    <cellStyle name="常规 53 2" xfId="96"/>
+    <cellStyle name="常规 48 3" xfId="97"/>
+    <cellStyle name="常规 53 3" xfId="98"/>
     <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="99"/>
     <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="100"/>
     <cellStyle name="?? 12" xfId="101"/>
@@ -5455,7 +5471,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{1040DC46-5397-435D-9630-691254F7E3C7}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -6518,15 +6534,15 @@
       <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6363636363636" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="14.6333333333333" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="11.1363636363636" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.1333333333333" style="23" customWidth="1"/>
     <col min="2" max="2" width="8" style="23" customWidth="1"/>
-    <col min="3" max="4" width="14.6363636363636" style="23"/>
-    <col min="5" max="5" width="7.63636363636364" style="23" customWidth="1"/>
+    <col min="3" max="4" width="14.6333333333333" style="23"/>
+    <col min="5" max="5" width="7.63333333333333" style="23" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="23" customWidth="1"/>
-    <col min="7" max="7" width="10.1363636363636" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="14.6363636363636" style="23"/>
+    <col min="7" max="7" width="10.1333333333333" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="14.6333333333333" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6991,13 +7007,13 @@
       <selection activeCell="A7" sqref="$A7:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="30.2545454545455" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="30.2583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7148,7 +7164,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:5">
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>109</v>
       </c>
@@ -7188,13 +7204,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="28.7545454545455" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="28.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7380,16 +7396,16 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="34.2545454545455" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="34.2583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7767,16 +7783,16 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.7727272727273" customWidth="1"/>
-    <col min="2" max="2" width="28.1090909090909" customWidth="1"/>
-    <col min="3" max="3" width="14.8909090909091" customWidth="1"/>
-    <col min="4" max="4" width="17.5545454545455" customWidth="1"/>
-    <col min="5" max="5" width="28.1090909090909" customWidth="1"/>
+    <col min="1" max="1" width="23.775" customWidth="1"/>
+    <col min="2" max="2" width="28.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.8916666666667" customWidth="1"/>
+    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="28.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7911,13 +7927,13 @@
       <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="30.1363636363636" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="30.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8155,16 +8171,16 @@
       <selection activeCell="A7" sqref="A7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.3818181818182" customWidth="1"/>
-    <col min="2" max="2" width="18.1363636363636" customWidth="1"/>
-    <col min="3" max="3" width="19.3818181818182" customWidth="1"/>
-    <col min="4" max="4" width="15.7545454545455" customWidth="1"/>
+    <col min="1" max="1" width="20.3833333333333" customWidth="1"/>
+    <col min="2" max="2" width="18.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.3833333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.7583333333333" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8281,7 +8297,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
@@ -8321,16 +8337,16 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.1363636363636" customWidth="1"/>
-    <col min="2" max="2" width="22.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="17.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="19.2545454545455" customWidth="1"/>
-    <col min="5" max="5" width="32.7545454545455" customWidth="1"/>
+    <col min="1" max="1" width="18.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="19.2583333333333" customWidth="1"/>
+    <col min="5" max="5" width="32.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8672,16 +8688,16 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.3818181818182" customWidth="1"/>
-    <col min="2" max="2" width="18.2545454545455" customWidth="1"/>
+    <col min="1" max="1" width="23.3833333333333" customWidth="1"/>
+    <col min="2" max="2" width="18.2583333333333" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="18.2545454545455" customWidth="1"/>
-    <col min="5" max="5" width="32.8818181818182" customWidth="1"/>
+    <col min="4" max="4" width="18.2583333333333" customWidth="1"/>
+    <col min="5" max="5" width="32.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8838,13 +8854,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="30.3818181818182" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="30.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8961,7 +8977,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
@@ -9001,15 +9017,15 @@
       <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88181818181818" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="29.7545454545455" customWidth="1"/>
-    <col min="3" max="3" width="23.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="29.7583333333333" customWidth="1"/>
+    <col min="3" max="3" width="23.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9202,12 +9218,12 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6363636363636" defaultRowHeight="12" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="17.6333333333333" defaultRowHeight="11.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.3818181818182" style="16" customWidth="1"/>
-    <col min="2" max="2" width="39.8818181818182" style="16" customWidth="1"/>
-    <col min="3" max="3" width="13.3818181818182" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="17.6363636363636" style="16"/>
+    <col min="1" max="1" width="36.3833333333333" style="16" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.3833333333333" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="17.6333333333333" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9221,7 +9237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="14" spans="1:3">
+    <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
@@ -9232,7 +9248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="14" spans="1:3">
+    <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
@@ -9243,7 +9259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="14" spans="1:3">
+    <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
@@ -9254,7 +9270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="14" spans="1:3">
+    <row r="5" ht="14.25" spans="1:3">
       <c r="A5" s="19" t="s">
         <v>25</v>
       </c>
@@ -9265,7 +9281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="14" spans="1:3">
+    <row r="6" ht="14.25" spans="1:3">
       <c r="A6" s="19" t="s">
         <v>27</v>
       </c>
@@ -9276,7 +9292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="14" spans="1:3">
+    <row r="7" ht="14.25" spans="1:3">
       <c r="A7" s="19" t="s">
         <v>29</v>
       </c>
@@ -9287,7 +9303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="14" spans="1:3">
+    <row r="8" ht="14.25" spans="1:3">
       <c r="A8" s="19" t="s">
         <v>31</v>
       </c>
@@ -9298,7 +9314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="14" spans="1:3">
+    <row r="9" ht="14.25" spans="1:3">
       <c r="A9" s="19" t="s">
         <v>33</v>
       </c>
@@ -9309,7 +9325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="14" spans="1:3">
+    <row r="10" ht="14.25" spans="1:3">
       <c r="A10" s="19" t="s">
         <v>35</v>
       </c>
@@ -9320,7 +9336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="14" spans="1:3">
+    <row r="11" ht="14.25" spans="1:3">
       <c r="A11" s="19" t="s">
         <v>37</v>
       </c>
@@ -9331,7 +9347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="14" spans="1:3">
+    <row r="12" ht="14.25" spans="1:3">
       <c r="A12" s="19" t="s">
         <v>39</v>
       </c>
@@ -9342,7 +9358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="14" spans="1:3">
+    <row r="13" ht="14.25" spans="1:3">
       <c r="A13" s="19" t="s">
         <v>41</v>
       </c>
@@ -9353,7 +9369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="14" spans="1:3">
+    <row r="14" ht="14.25" spans="1:3">
       <c r="A14" s="19" t="s">
         <v>43</v>
       </c>
@@ -9364,7 +9380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" ht="14" spans="1:3">
+    <row r="15" ht="14.25" spans="1:3">
       <c r="A15" s="19" t="s">
         <v>45</v>
       </c>
@@ -9375,7 +9391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="14" spans="1:3">
+    <row r="16" ht="14.25" spans="1:3">
       <c r="A16" s="19" t="s">
         <v>47</v>
       </c>
@@ -9386,7 +9402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" ht="14" spans="1:3">
+    <row r="17" ht="14.25" spans="1:3">
       <c r="A17" s="19" t="s">
         <v>49</v>
       </c>
@@ -9397,7 +9413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="14" spans="1:3">
+    <row r="18" ht="14.25" spans="1:3">
       <c r="A18" s="19" t="s">
         <v>51</v>
       </c>
@@ -9408,7 +9424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="14" spans="1:3">
+    <row r="19" ht="14.25" spans="1:3">
       <c r="A19" s="19" t="s">
         <v>53</v>
       </c>
@@ -9419,7 +9435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" ht="14" spans="1:3">
+    <row r="20" ht="14.25" spans="1:3">
       <c r="A20" s="19" t="s">
         <v>55</v>
       </c>
@@ -9430,7 +9446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" ht="14" spans="1:3">
+    <row r="21" ht="14.25" spans="1:3">
       <c r="A21" s="19" t="s">
         <v>57</v>
       </c>
@@ -9441,7 +9457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="14" spans="1:3">
+    <row r="22" ht="14.25" spans="1:3">
       <c r="A22" s="19" t="s">
         <v>59</v>
       </c>
@@ -9452,7 +9468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" ht="14" spans="1:3">
+    <row r="23" ht="14.25" spans="1:3">
       <c r="A23" s="19" t="s">
         <v>61</v>
       </c>
@@ -9463,7 +9479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" ht="14" spans="1:3">
+    <row r="24" ht="14.25" spans="1:3">
       <c r="A24" s="19" t="s">
         <v>63</v>
       </c>
@@ -9474,7 +9490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="14" spans="1:3">
+    <row r="25" ht="14.25" spans="1:3">
       <c r="A25" s="19" t="s">
         <v>65</v>
       </c>
@@ -9485,7 +9501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="14" spans="1:3">
+    <row r="26" ht="14.25" spans="1:3">
       <c r="A26" s="19" t="s">
         <v>67</v>
       </c>
@@ -9496,7 +9512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="14" spans="1:3">
+    <row r="27" ht="14.25" spans="1:3">
       <c r="A27" s="19" t="s">
         <v>69</v>
       </c>
@@ -9507,7 +9523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" ht="14" spans="1:3">
+    <row r="28" ht="14.25" spans="1:3">
       <c r="A28" s="19" t="s">
         <v>71</v>
       </c>
@@ -9518,7 +9534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" ht="14" spans="1:3">
+    <row r="29" ht="14.25" spans="1:3">
       <c r="A29" s="19" t="s">
         <v>73</v>
       </c>
@@ -9529,7 +9545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" ht="14" spans="1:3">
+    <row r="30" ht="14.25" spans="1:3">
       <c r="A30" s="19" t="s">
         <v>75</v>
       </c>
@@ -9540,7 +9556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" ht="14" spans="1:3">
+    <row r="31" ht="14.25" spans="1:3">
       <c r="A31" s="19" t="s">
         <v>77</v>
       </c>
@@ -9552,7 +9568,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C31">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C31" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -9606,15 +9622,15 @@
       <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.6363636363636" customWidth="1"/>
-    <col min="2" max="3" width="16.2545454545455" customWidth="1"/>
+    <col min="1" max="1" width="26.6333333333333" customWidth="1"/>
+    <col min="2" max="3" width="16.2583333333333" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9714,7 +9730,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
@@ -9835,15 +9851,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6363636363636" customWidth="1"/>
+    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="20.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="54.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="54.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10078,16 +10094,16 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10221,7 +10237,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" ht="28" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -10261,16 +10277,16 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="19.2545454545455" customWidth="1"/>
-    <col min="3" max="3" width="13.7545454545455" customWidth="1"/>
-    <col min="4" max="4" width="14.1363636363636" customWidth="1"/>
-    <col min="5" max="5" width="34.2545454545455" customWidth="1"/>
+    <col min="2" max="2" width="19.2583333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.7583333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="34.2583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10390,16 +10406,16 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD9"/>
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="31.6363636363636" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10627,14 +10643,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6363636363636" customWidth="1"/>
+    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="5" width="20.6363636363636" customWidth="1"/>
+    <col min="4" max="5" width="20.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10791,15 +10807,15 @@
       <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6363636363636" customWidth="1"/>
+    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10916,7 +10932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
@@ -11054,13 +11070,13 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11483,7 +11499,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" ht="28" spans="1:5">
+    <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
         <v>109</v>
       </c>
@@ -11520,17 +11536,17 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E16" sqref="A16:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.7545454545455" customWidth="1"/>
-    <col min="2" max="4" width="20.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="36.8818181818182" customWidth="1"/>
+    <col min="1" max="1" width="25.7583333333333" customWidth="1"/>
+    <col min="2" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="36.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11715,7 +11731,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:5">
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>426</v>
       </c>
@@ -11817,22 +11833,22 @@
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88181818181818" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="26.8818181818182" customWidth="1"/>
-    <col min="3" max="3" width="18.7545454545455" customWidth="1"/>
-    <col min="4" max="4" width="12.8818181818182" customWidth="1"/>
-    <col min="5" max="5" width="26.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="26.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.7583333333333" customWidth="1"/>
+    <col min="4" max="4" width="12.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11981,6 +11997,57 @@
       </c>
       <c r="E9" s="7" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" ht="14" customHeight="1" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="5">
+        <v>500</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="14" customHeight="1" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -12006,13 +12073,13 @@
       <selection activeCell="A9" sqref="$A9:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="32.1363636363636" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="32.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12250,17 +12317,17 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12323,12 +12390,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -12340,12 +12407,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -12357,12 +12424,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -12374,12 +12441,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -12391,58 +12458,58 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:5">
@@ -12513,15 +12580,15 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A18" sqref="A18:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88181818181818" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12576,7 +12643,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -12588,7 +12655,7 @@
         <v>85</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -12605,12 +12672,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -12622,12 +12689,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -12639,12 +12706,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -12656,12 +12723,12 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>88</v>
@@ -12673,7 +12740,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -12695,7 +12762,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>88</v>
@@ -12712,7 +12779,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>263</v>
@@ -12724,7 +12791,7 @@
         <v>85</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -12741,12 +12808,12 @@
         <v>85</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>469</v>
+        <v>197</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>263</v>
@@ -12758,7 +12825,7 @@
         <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -12775,7 +12842,7 @@
         <v>89</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -12810,6 +12877,23 @@
       </c>
       <c r="E17" s="10" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -12835,15 +12919,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6363636363636" customWidth="1"/>
+    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="20.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="29.8818181818182" customWidth="1"/>
+    <col min="4" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="29.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12906,12 +12990,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -12923,7 +13007,7 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12945,7 +13029,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -12957,10 +13041,10 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="8" ht="28" spans="1:5">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
@@ -13000,13 +13084,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13314,13 +13398,13 @@
       <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="30.7545454545455" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="30.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13522,7 +13606,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" ht="28" spans="1:5">
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>148</v>
       </c>
@@ -13562,13 +13646,13 @@
       <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="34.8818181818182" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="34.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13844,13 +13928,13 @@
       <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="39.2545454545455" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="39.2583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14286,7 +14370,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" ht="28" spans="1:5">
+    <row r="27" ht="27" spans="1:5">
       <c r="A27" s="5" t="s">
         <v>191</v>
       </c>
@@ -14303,7 +14387,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" ht="28" spans="1:5">
+    <row r="28" ht="27" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>193</v>
       </c>
@@ -14429,13 +14513,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14949,13 +15033,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="30.7545454545455" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="30.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15191,7 +15275,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" ht="28" spans="1:5">
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>109</v>
       </c>
